--- a/RPIS/punkty.xlsx
+++ b/RPIS/punkty.xlsx
@@ -130,7 +130,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -140,10 +140,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -166,8 +162,8 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="223" zoomScaleNormal="223" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="223" zoomScaleNormal="223" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -344,14 +340,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="D12" s="1" t="n">
         <f aca="false">SUM($B$2:B12)/SUM($C$2:C12)*100</f>
-        <v>87.2727272727273</v>
+        <v>88.1818181818182</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -366,7 +362,7 @@
       </c>
       <c r="D13" s="1" t="n">
         <f aca="false">SUM($B$2:B13)/SUM($C$2:C13)*100</f>
-        <v>84.1666666666667</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -381,7 +377,7 @@
       </c>
       <c r="D14" s="1" t="n">
         <f aca="false">SUM($B$2:B14)/SUM($C$2:C14)*100</f>
-        <v>81.5384615384615</v>
+        <v>82.3076923076923</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -389,7 +385,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>10</v>
@@ -429,12 +425,15 @@
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B18" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="C18" s="1" t="n">
         <v>10</v>
       </c>
       <c r="E18" s="1" t="n">
         <f aca="false">SUM(B16:B18)</f>
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -449,7 +448,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="n">
         <f aca="false">SUM(E15:E19)</f>
-        <v>47.2142857142857</v>
+        <v>51.2142857142857</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">SUM(B12:B15)/SUM(C12:C15)*100</f>
@@ -457,10 +456,10 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="3" t="str">
+      <c r="B21" s="1" t="str">
         <f aca="false">IF(AND(D15&gt;46, F20&gt;45, E20&gt;46), "TAK", "NIE")</f>
         <v>TAK</v>
       </c>

--- a/RPIS/punkty.xlsx
+++ b/RPIS/punkty.xlsx
@@ -130,12 +130,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -163,7 +167,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="223" zoomScaleNormal="223" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -340,14 +344,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="D12" s="1" t="n">
         <f aca="false">SUM($B$2:B12)/SUM($C$2:C12)*100</f>
-        <v>88.1818181818182</v>
+        <v>91.8181818181818</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -355,14 +359,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>10</v>
       </c>
       <c r="D13" s="1" t="n">
         <f aca="false">SUM($B$2:B13)/SUM($C$2:C13)*100</f>
-        <v>85</v>
+        <v>90.8333333333333</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -370,14 +374,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>10</v>
       </c>
       <c r="D14" s="1" t="n">
         <f aca="false">SUM($B$2:B14)/SUM($C$2:C14)*100</f>
-        <v>82.3076923076923</v>
+        <v>83.8461538461539</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -385,18 +389,18 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>10</v>
       </c>
       <c r="D15" s="1" t="n">
         <f aca="false">SUM($B$2:B15)/SUM($C$2:C15)*100</f>
-        <v>79.2857142857143</v>
+        <v>77.8571428571429</v>
       </c>
       <c r="E15" s="1" t="n">
         <f aca="false">SUM(B2:B15)*40/140</f>
-        <v>31.7142857142857</v>
+        <v>31.1428571428571</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -425,7 +429,7 @@
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="2" t="n">
         <v>4</v>
       </c>
       <c r="C18" s="1" t="n">
@@ -442,17 +446,17 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="n">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="n">
         <f aca="false">SUM(E15:E19)</f>
-        <v>51.2142857142857</v>
+        <v>50.6428571428571</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">SUM(B12:B15)/SUM(C12:C15)*100</f>
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -461,7 +465,7 @@
       </c>
       <c r="B21" s="1" t="str">
         <f aca="false">IF(AND(D15&gt;46, F20&gt;45, E20&gt;46), "TAK", "NIE")</f>
-        <v>TAK</v>
+        <v>NIE</v>
       </c>
     </row>
   </sheetData>

--- a/RPIS/punkty.xlsx
+++ b/RPIS/punkty.xlsx
@@ -167,7 +167,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="223" zoomScaleNormal="223" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -374,14 +374,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>10</v>
       </c>
       <c r="D14" s="1" t="n">
         <f aca="false">SUM($B$2:B14)/SUM($C$2:C14)*100</f>
-        <v>83.8461538461539</v>
+        <v>85.3846153846154</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -396,11 +396,11 @@
       </c>
       <c r="D15" s="1" t="n">
         <f aca="false">SUM($B$2:B15)/SUM($C$2:C15)*100</f>
-        <v>77.8571428571429</v>
+        <v>79.2857142857143</v>
       </c>
       <c r="E15" s="1" t="n">
         <f aca="false">SUM(B2:B15)*40/140</f>
-        <v>31.1428571428571</v>
+        <v>31.7142857142857</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -430,14 +430,14 @@
         <v>7</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>10</v>
       </c>
       <c r="E18" s="1" t="n">
         <f aca="false">SUM(B16:B18)</f>
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -452,11 +452,11 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="n">
         <f aca="false">SUM(E15:E19)</f>
-        <v>50.6428571428571</v>
+        <v>57.2142857142857</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">SUM(B12:B15)/SUM(C12:C15)*100</f>
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -465,7 +465,7 @@
       </c>
       <c r="B21" s="1" t="str">
         <f aca="false">IF(AND(D15&gt;46, F20&gt;45, E20&gt;46), "TAK", "NIE")</f>
-        <v>NIE</v>
+        <v>TAK</v>
       </c>
     </row>
   </sheetData>
